--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\LearnAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gayathri\Desktop\SeleniumBesant\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED92E3-1B36-4241-94C0-E24036326A12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7770E967-4AE4-4C73-B8AE-58A272BE3286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,16 +376,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -401,7 +401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -430,7 +430,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
